--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>有逻辑，但是UI没完成</t>
   </si>
@@ -142,78 +142,78 @@
   </si>
   <si>
     <t>子模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已做，待验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>增加攻击力数值，生命数值，点击伤害数值，已做完</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ICON关联技能没做完，按钮状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>按钮状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《战斗系统》-战斗掉落</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《关卡系统》-关卡挑战逻辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《技能系统》-技能规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《效果类型枚举》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战役icon关联、《战斗界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>icon关联，按钮状态、《英雄界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>icon关联，按钮状态、《装备界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《英雄解锁》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《英雄养成》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《装备界面UI逻辑》</t>
   </si>
   <si>
     <t>《装备界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>预计完成时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本规划</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.0.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,22 +229,77 @@
       </rPr>
       <t>.0.2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.0.2</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部的敌人列表，BOSS剩余时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -296,7 +351,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,8 +382,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,70 +449,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H7:V37"/>
+  <dimension ref="H7:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -798,7 +886,7 @@
       </c>
     </row>
     <row r="8" spans="8:20">
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -813,8 +901,8 @@
       <c r="L8" s="13">
         <v>0.5</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>8</v>
+      <c r="M8" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>58</v>
@@ -824,8 +912,8 @@
       </c>
     </row>
     <row r="9" spans="8:20">
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -842,8 +930,8 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="8:20">
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
@@ -858,8 +946,8 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="8:20">
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="3" t="s">
         <v>12</v>
       </c>
@@ -874,8 +962,8 @@
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="8:20">
-      <c r="H12" s="18"/>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -892,8 +980,8 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="8:20">
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="13" t="s">
         <v>15</v>
       </c>
@@ -912,8 +1000,8 @@
       </c>
     </row>
     <row r="14" spans="8:20">
-      <c r="H14" s="18"/>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="13" t="s">
@@ -934,8 +1022,8 @@
       </c>
     </row>
     <row r="15" spans="8:20">
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="13" t="s">
         <v>18</v>
       </c>
@@ -955,43 +1043,43 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="8:20">
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="13" t="s">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14" t="s">
+      <c r="L16" s="24">
+        <v>1</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="26">
         <v>12.26</v>
       </c>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="8:22">
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="13">
-        <v>0</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="24">
+        <v>1</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="26">
         <v>12.26</v>
       </c>
       <c r="T17" s="7"/>
@@ -1005,13 +1093,13 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
-      <c r="S18" s="20"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
     <row r="19" spans="8:22">
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1036,8 +1124,8 @@
       <c r="V19" s="7"/>
     </row>
     <row r="20" spans="8:22">
-      <c r="H20" s="18"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="19"/>
+      <c r="I20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1057,8 +1145,8 @@
       <c r="V20" s="7"/>
     </row>
     <row r="21" spans="8:22">
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1071,12 +1159,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="10"/>
-      <c r="S21" s="20"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="8:22">
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1091,8 +1179,8 @@
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="8:22">
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1110,8 +1198,8 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="8:22">
-      <c r="H24" s="18"/>
-      <c r="I24" s="17" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="18" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -1128,11 +1216,11 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="10"/>
-      <c r="S24" s="20"/>
+      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="8:22">
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1145,10 +1233,10 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="10"/>
-      <c r="S25" s="20"/>
+      <c r="S25" s="17"/>
     </row>
     <row r="26" spans="8:22">
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1264,7 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="8:22">
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -1200,11 +1288,14 @@
       <c r="O28" s="15">
         <v>12.26</v>
       </c>
+      <c r="P28" s="23">
+        <v>0</v>
+      </c>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="8:22">
-      <c r="H29" s="18"/>
-      <c r="I29" s="17" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="J29" s="13" t="s">
@@ -1225,10 +1316,11 @@
       <c r="O29" s="15">
         <v>12.26</v>
       </c>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="8:22">
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="13" t="s">
         <v>34</v>
       </c>
@@ -1247,6 +1339,7 @@
       <c r="O30" s="15">
         <v>12.26</v>
       </c>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="8:22">
       <c r="H31" s="4"/>
@@ -1259,7 +1352,7 @@
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="8:22">
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -1279,8 +1372,8 @@
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="8:15">
-      <c r="H33" s="18"/>
-      <c r="I33" s="17" t="s">
+      <c r="H33" s="19"/>
+      <c r="I33" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -1297,8 +1390,8 @@
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="8:15">
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1313,8 +1406,8 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="8:15">
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1424,7 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="8:15">
-      <c r="H36" s="19"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1353,9 +1446,63 @@
     <row r="37" spans="8:15">
       <c r="L37" s="2"/>
     </row>
+    <row r="38" spans="8:15">
+      <c r="H38" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15">
+      <c r="K39" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15">
+      <c r="K40" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15">
+      <c r="K41" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="N7:N37"/>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P28:P30"/>
     <mergeCell ref="I33:I35"/>
     <mergeCell ref="H8:H17"/>
     <mergeCell ref="H19:H26"/>
@@ -1368,7 +1515,7 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I29:I30"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1402,7 +1549,7 @@
       </c>
     </row>
     <row r="13" spans="7:11" ht="16.5">
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1419,8 +1566,8 @@
       </c>
     </row>
     <row r="14" spans="7:11" ht="16.5">
-      <c r="G14" s="18"/>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1432,8 +1579,8 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="7:11" ht="16.5">
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1590,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="7:11" ht="16.5">
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1454,8 +1601,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="16.5">
-      <c r="G17" s="18"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -1467,8 +1614,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="7:11" ht="16.5">
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1478,8 +1625,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="7:11" ht="16.5">
-      <c r="G19" s="18"/>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1491,8 +1638,8 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="7:11" ht="16.5">
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1502,8 +1649,8 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="7:11" ht="16.5">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1513,8 +1660,8 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="7:11" ht="16.5">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1531,7 +1678,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="7:11" ht="16.5">
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1548,8 +1695,8 @@
       </c>
     </row>
     <row r="25" spans="7:11" ht="16.5">
-      <c r="G25" s="18"/>
-      <c r="H25" s="17" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -1561,8 +1708,8 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="7:11" ht="16.5">
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1572,8 +1719,8 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="7:11" ht="16.5">
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1583,8 +1730,8 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="7:11" ht="16.5">
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1594,8 +1741,8 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="7:11" ht="16.5">
-      <c r="G29" s="18"/>
-      <c r="H29" s="17" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -1609,8 +1756,8 @@
       </c>
     </row>
     <row r="30" spans="7:11" ht="16.5">
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1620,7 +1767,7 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="7:11" ht="16.5">
-      <c r="G31" s="19"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1787,7 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="7:11" ht="16.5">
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1655,8 +1802,8 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="7:11" ht="16.5">
-      <c r="G34" s="18"/>
-      <c r="H34" s="17" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -1670,8 +1817,8 @@
       </c>
     </row>
     <row r="35" spans="7:11" ht="16.5">
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1690,7 +1837,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="7:11" ht="16.5">
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -1705,8 +1852,8 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="7:11" ht="16.5">
-      <c r="G38" s="18"/>
-      <c r="H38" s="17" t="s">
+      <c r="G38" s="19"/>
+      <c r="H38" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -1718,8 +1865,8 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="7:11" ht="16.5">
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1729,8 +1876,8 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="7:11" ht="16.5">
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="3" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1889,7 @@
       </c>
     </row>
     <row r="41" spans="7:11" ht="16.5">
-      <c r="G41" s="19"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="3" t="s">
         <v>35</v>
       </c>
@@ -1778,7 +1925,7 @@
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="H29:H30"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1792,7 +1939,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
   <si>
     <t>有逻辑，但是UI没完成</t>
   </si>
@@ -142,78 +142,78 @@
   </si>
   <si>
     <t>子模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已做，待验证</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>增加攻击力数值，生命数值，点击伤害数值，已做完</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ICON关联技能没做完，按钮状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>按钮状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《战斗系统》-战斗掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《关卡系统》-关卡挑战逻辑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《技能系统》-技能规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《效果类型枚举》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战役icon关联、《战斗界面UI逻辑》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>icon关联，按钮状态、《英雄界面UI逻辑》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>icon关联，按钮状态、《装备界面UI逻辑》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《英雄解锁》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《英雄养成》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>《装备界面UI逻辑》</t>
   </si>
   <si>
     <t>《装备界面UI逻辑》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>预计完成时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>版本规划</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0.0.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,77 +229,22 @@
       </rPr>
       <t>.0.2</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0.0.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>存档</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.0.2</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部的敌人列表，BOSS剩余时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -351,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,14 +327,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -449,97 +388,70 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H7:V41"/>
+  <dimension ref="H7:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -886,7 +798,7 @@
       </c>
     </row>
     <row r="8" spans="8:20">
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -901,8 +813,8 @@
       <c r="L8" s="13">
         <v>0.5</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>69</v>
+      <c r="M8" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>58</v>
@@ -912,8 +824,8 @@
       </c>
     </row>
     <row r="9" spans="8:20">
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -930,8 +842,8 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="8:20">
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
@@ -946,8 +858,8 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="8:20">
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="3" t="s">
         <v>12</v>
       </c>
@@ -962,8 +874,8 @@
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="8:20">
-      <c r="H12" s="19"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -980,8 +892,8 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="8:20">
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="13" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +912,8 @@
       </c>
     </row>
     <row r="14" spans="8:20">
-      <c r="H14" s="19"/>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="13" t="s">
@@ -1022,8 +934,8 @@
       </c>
     </row>
     <row r="15" spans="8:20">
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="13" t="s">
         <v>18</v>
       </c>
@@ -1043,43 +955,43 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="8:20">
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="24" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="24">
-        <v>1</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25" t="s">
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="15">
         <v>12.26</v>
       </c>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="8:22">
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="24">
-        <v>1</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25" t="s">
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="15">
         <v>12.26</v>
       </c>
       <c r="T17" s="7"/>
@@ -1093,13 +1005,13 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="20"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
     <row r="19" spans="8:22">
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1124,8 +1036,8 @@
       <c r="V19" s="7"/>
     </row>
     <row r="20" spans="8:22">
-      <c r="H20" s="19"/>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1145,8 +1057,8 @@
       <c r="V20" s="7"/>
     </row>
     <row r="21" spans="8:22">
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1159,12 +1071,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="10"/>
-      <c r="S21" s="17"/>
+      <c r="S21" s="20"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="8:22">
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1179,8 +1091,8 @@
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="8:22">
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1198,8 +1110,8 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="8:22">
-      <c r="H24" s="19"/>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -1216,11 +1128,11 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="10"/>
-      <c r="S24" s="17"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="8:22">
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1233,10 +1145,10 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="10"/>
-      <c r="S25" s="17"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="8:22">
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1176,7 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="8:22">
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="17" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -1288,14 +1200,11 @@
       <c r="O28" s="15">
         <v>12.26</v>
       </c>
-      <c r="P28" s="23">
-        <v>0</v>
-      </c>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="8:22">
-      <c r="H29" s="19"/>
-      <c r="I29" s="18" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="17" t="s">
         <v>32</v>
       </c>
       <c r="J29" s="13" t="s">
@@ -1316,11 +1225,10 @@
       <c r="O29" s="15">
         <v>12.26</v>
       </c>
-      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="8:22">
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="13" t="s">
         <v>34</v>
       </c>
@@ -1339,7 +1247,6 @@
       <c r="O30" s="15">
         <v>12.26</v>
       </c>
-      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="8:22">
       <c r="H31" s="4"/>
@@ -1352,7 +1259,7 @@
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="8:22">
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="17" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -1372,8 +1279,8 @@
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="8:15">
-      <c r="H33" s="19"/>
-      <c r="I33" s="18" t="s">
+      <c r="H33" s="18"/>
+      <c r="I33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -1390,8 +1297,8 @@
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="8:15">
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1406,8 +1313,8 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="8:15">
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1331,7 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="8:15">
-      <c r="H36" s="20"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1446,63 +1353,9 @@
     <row r="37" spans="8:15">
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="8:15">
-      <c r="H38" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="8:15">
-      <c r="K39" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="8:15">
-      <c r="K40" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="8:15">
-      <c r="K41" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="N7:N37"/>
-  <mergeCells count="12">
-    <mergeCell ref="P28:P30"/>
+  <mergeCells count="11">
     <mergeCell ref="I33:I35"/>
     <mergeCell ref="H8:H17"/>
     <mergeCell ref="H19:H26"/>
@@ -1515,7 +1368,7 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I29:I30"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1549,7 +1402,7 @@
       </c>
     </row>
     <row r="13" spans="7:11" ht="16.5">
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1566,8 +1419,8 @@
       </c>
     </row>
     <row r="14" spans="7:11" ht="16.5">
-      <c r="G14" s="19"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1579,8 +1432,8 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="7:11" ht="16.5">
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1590,8 +1443,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="7:11" ht="16.5">
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1601,8 +1454,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="16.5">
-      <c r="G17" s="19"/>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -1614,8 +1467,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="7:11" ht="16.5">
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1625,8 +1478,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="7:11" ht="16.5">
-      <c r="G19" s="19"/>
-      <c r="H19" s="18" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1638,8 +1491,8 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="7:11" ht="16.5">
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1649,8 +1502,8 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="7:11" ht="16.5">
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1660,8 +1513,8 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="7:11" ht="16.5">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1531,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="7:11" ht="16.5">
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1695,8 +1548,8 @@
       </c>
     </row>
     <row r="25" spans="7:11" ht="16.5">
-      <c r="G25" s="19"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="17" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -1708,8 +1561,8 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="7:11" ht="16.5">
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1572,8 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="7:11" ht="16.5">
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1730,8 +1583,8 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="7:11" ht="16.5">
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1741,8 +1594,8 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="7:11" ht="16.5">
-      <c r="G29" s="19"/>
-      <c r="H29" s="18" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="17" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -1756,8 +1609,8 @@
       </c>
     </row>
     <row r="30" spans="7:11" ht="16.5">
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1620,7 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="7:11" ht="16.5">
-      <c r="G31" s="20"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1787,7 +1640,7 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="7:11" ht="16.5">
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1802,8 +1655,8 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="7:11" ht="16.5">
-      <c r="G34" s="19"/>
-      <c r="H34" s="18" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="17" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -1817,8 +1670,8 @@
       </c>
     </row>
     <row r="35" spans="7:11" ht="16.5">
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1837,7 +1690,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="7:11" ht="16.5">
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -1852,8 +1705,8 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="7:11" ht="16.5">
-      <c r="G38" s="19"/>
-      <c r="H38" s="18" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -1865,8 +1718,8 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="7:11" ht="16.5">
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1876,8 +1729,8 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="7:11" ht="16.5">
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="3" t="s">
         <v>34</v>
       </c>
@@ -1889,7 +1742,7 @@
       </c>
     </row>
     <row r="41" spans="7:11" ht="16.5">
-      <c r="G41" s="20"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="3" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1778,7 @@
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="H29:H30"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1939,7 +1792,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>有逻辑，但是UI没完成</t>
   </si>
@@ -142,78 +142,78 @@
   </si>
   <si>
     <t>子模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已做，待验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>增加攻击力数值，生命数值，点击伤害数值，已做完</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ICON关联技能没做完，按钮状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>按钮状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《战斗系统》-战斗掉落</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《关卡系统》-关卡挑战逻辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《技能系统》-技能规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《效果类型枚举》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战役icon关联、《战斗界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>icon关联，按钮状态、《英雄界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>icon关联，按钮状态、《装备界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《英雄解锁》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《英雄养成》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>《装备界面UI逻辑》</t>
   </si>
   <si>
     <t>《装备界面UI逻辑》</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>预计完成时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本规划</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.0.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,22 +229,61 @@
       </rPr>
       <t>.0.2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成进度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码整理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储逻辑代码整理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.0.2</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -296,7 +335,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,66 +437,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H7:V37"/>
+  <dimension ref="H7:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,8 +820,7 @@
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="55" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="15.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="42.125" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1"/>
     <col min="19" max="19" width="54.125" style="1" customWidth="1"/>
@@ -772,28 +828,31 @@
   </cols>
   <sheetData>
     <row r="7" spans="8:20">
-      <c r="H7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -801,25 +860,28 @@
       <c r="H8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>0.5</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="20">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
         <v>12.26</v>
       </c>
     </row>
@@ -828,86 +890,93 @@
       <c r="I9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="8" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="8:20">
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="8" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="8:20">
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="8" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="8:20">
       <c r="H12" s="18"/>
       <c r="I12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="8" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="8:20">
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14" t="s">
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
         <v>12.26</v>
       </c>
     </row>
@@ -916,442 +985,514 @@
       <c r="I14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14" t="s">
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
         <v>12.26</v>
       </c>
     </row>
     <row r="15" spans="8:20">
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14" t="s">
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
         <v>12.26</v>
       </c>
-      <c r="T15" s="7"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="8:20">
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14" t="s">
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="20">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14">
         <v>12.26</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="8:22">
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="13">
-        <v>0</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="20">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14">
         <v>12.26</v>
       </c>
-      <c r="T17" s="7"/>
+      <c r="T17" s="6"/>
     </row>
     <row r="18" spans="8:22">
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
     </row>
     <row r="19" spans="8:22">
       <c r="H19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>0.5</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="20" spans="8:22">
       <c r="H20" s="18"/>
       <c r="I20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="10"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21" spans="8:22">
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="10"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="7"/>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="6"/>
     </row>
     <row r="22" spans="8:22">
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="10"/>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="8:22">
       <c r="H23" s="18"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="10"/>
-      <c r="S23" s="16"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="S23" s="15"/>
     </row>
     <row r="24" spans="8:22">
       <c r="H24" s="18"/>
       <c r="I24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>0.5</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="10"/>
-      <c r="S24" s="20"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="S24" s="16"/>
     </row>
     <row r="25" spans="8:22">
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="10"/>
-      <c r="S25" s="20"/>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="S25" s="16"/>
     </row>
     <row r="26" spans="8:22">
       <c r="H26" s="19"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="10"/>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="8:22">
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="8:22">
       <c r="H28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <v>0.5</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
         <v>12.26</v>
       </c>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="8:22">
       <c r="H29" s="18"/>
       <c r="I29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <v>0.5</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="14" t="s">
+      <c r="M29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
         <v>12.26</v>
       </c>
     </row>
     <row r="30" spans="8:22">
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <v>0.5</v>
       </c>
-      <c r="M30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="14" t="s">
+      <c r="M30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
         <v>12.26</v>
       </c>
     </row>
     <row r="31" spans="8:22">
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="8:22">
       <c r="H32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>0.5</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="8:15">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="8:16">
       <c r="H33" s="18"/>
       <c r="I33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="8:15">
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="8:16">
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="8:15">
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="8:16">
       <c r="H35" s="18"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>0.5</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="8:15">
+      <c r="M35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="8:16">
       <c r="H36" s="19"/>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>0.5</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="8:15">
-      <c r="L37" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="8:16">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="8:16">
+      <c r="H38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="12">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="21">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12">
+        <v>12.26</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="N7:N37"/>
@@ -1368,7 +1509,7 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I29:I30"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1385,19 +1526,19 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="12" spans="7:11" ht="16.5">
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1405,16 +1546,16 @@
       <c r="G13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0.5</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1423,127 +1564,127 @@
       <c r="H14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="7:11" ht="16.5">
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3"/>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="7:11" ht="16.5">
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3"/>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="7:11" ht="16.5">
       <c r="G17" s="18"/>
       <c r="H17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3"/>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="7:11" ht="16.5">
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3"/>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="7:11" ht="16.5">
       <c r="G19" s="18"/>
       <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3"/>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="7:11" ht="16.5">
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3"/>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="7:11" ht="16.5">
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="7:11" ht="16.5">
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="7:11" ht="16.5">
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="7:11" ht="16.5">
       <c r="G24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>0.5</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1552,215 +1693,215 @@
       <c r="H25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="7:11" ht="16.5">
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3"/>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="7:11" ht="16.5">
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3"/>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="7:11" ht="16.5">
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3"/>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="7:11" ht="16.5">
       <c r="G29" s="18"/>
       <c r="H29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>0.5</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="7:11" ht="16.5">
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3"/>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="7:11" ht="16.5">
       <c r="G31" s="19"/>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3"/>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="7:11" ht="16.5">
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="7:11" ht="16.5">
       <c r="G33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="7:11" ht="16.5">
       <c r="G34" s="18"/>
       <c r="H34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>0.5</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="7:11" ht="16.5">
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>0.5</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="7:11" ht="16.5">
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="7:11" ht="16.5">
       <c r="G37" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3"/>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="7:11" ht="16.5">
       <c r="G38" s="18"/>
       <c r="H38" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3"/>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="7:11" ht="16.5">
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3"/>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="7:11" ht="16.5">
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>0.5</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:11" ht="16.5">
       <c r="G41" s="19"/>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>0.5</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:11">
-      <c r="G43" s="5"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="7:11">
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1778,7 +1919,7 @@
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="H29:H30"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1792,7 +1933,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -233,9 +233,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,28 +258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -288,21 +266,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,6 +282,57 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,29 +355,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,14 +386,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -394,7 +394,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,7 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,25 +459,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,145 +555,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,15 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -713,6 +686,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,21 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -793,148 +775,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,7 +1305,7 @@
   <dimension ref="H7:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125"/>
+    <workbookView windowWidth="28695" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$7:$N$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Q$7:$Q$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>系统</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>预计完成时间</t>
+  </si>
+  <si>
+    <t>负责人</t>
   </si>
   <si>
     <t>战斗</t>
@@ -110,6 +113,12 @@
     </r>
   </si>
   <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>黄承开</t>
+  </si>
+  <si>
     <t>Boss逻辑</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
     <t>《关卡系统》-关卡挑战逻辑</t>
   </si>
   <si>
+    <t>裴韶洋</t>
+  </si>
+  <si>
     <t>Boss掉落</t>
   </si>
   <si>
@@ -177,6 +189,9 @@
   </si>
   <si>
     <t>按钮状态</t>
+  </si>
+  <si>
+    <t>马龙</t>
   </si>
   <si>
     <t>解锁</t>
@@ -258,6 +273,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -266,6 +296,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,14 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,23 +347,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,7 +385,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -364,21 +394,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,15 +416,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,19 +468,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,79 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,61 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +696,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -692,24 +722,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +758,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,166 +793,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,19 +967,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="H7:P38"/>
+  <dimension ref="H7:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1317,78 +1362,83 @@
     <col min="12" max="12" width="9" style="8"/>
     <col min="13" max="13" width="55" style="8" customWidth="1"/>
     <col min="14" max="14" width="15.375" style="8" customWidth="1"/>
-    <col min="15" max="16" width="15.25" style="8" customWidth="1"/>
+    <col min="15" max="15" width="15.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="9" customWidth="1"/>
     <col min="17" max="17" width="42.125" style="8" customWidth="1"/>
     <col min="18" max="18" width="9" style="8"/>
     <col min="19" max="19" width="54.125" style="8" customWidth="1"/>
     <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:16">
-      <c r="H7" s="9" t="s">
+    <row r="7" spans="8:17">
+      <c r="H7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="8:16">
+      <c r="Q7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="8:17">
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="10">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12">
         <v>0.5</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="11">
+      <c r="N8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="13">
         <v>1</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="14">
         <v>12.26</v>
       </c>
-    </row>
-    <row r="9" spans="8:16">
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="8:17">
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
@@ -1396,16 +1446,17 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="8:16">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="8:17">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
@@ -1413,16 +1464,17 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="8:16">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="8:17">
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
@@ -1430,18 +1482,19 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="8:16">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="8:17">
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
@@ -1449,172 +1502,186 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="8:16">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="8:17">
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="J13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="10">
+      <c r="K13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="16">
         <v>0</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="16">
         <v>0</v>
       </c>
-      <c r="P13" s="10">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="14" spans="8:16">
+      <c r="P13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="8:17">
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="15" spans="8:16">
+      <c r="Q14" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="8:17">
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="J15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="16" spans="8:16">
+    </row>
+    <row r="16" spans="8:17">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="10">
+      <c r="J16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="12">
         <v>0</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="13">
         <v>1</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="14">
         <v>12.26</v>
       </c>
-    </row>
-    <row r="17" spans="8:16">
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="8:17">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="10">
+      <c r="L17" s="12">
         <v>0</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="13">
         <v>1</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="14">
         <v>12.26</v>
       </c>
-    </row>
-    <row r="18" spans="8:16">
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="8:17">
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="8:16">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="8:17">
       <c r="H19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L19" s="1">
         <v>0.5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="8:16">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="8:17">
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1622,16 +1689,17 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="8:16">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="8:17">
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1639,16 +1707,17 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="8:16">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="8:17">
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -1656,56 +1725,59 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="8:16">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="8:17">
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>40</v>
+      <c r="M23" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="8:16">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="8:17">
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L24" s="1">
         <v>0.5</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="8:16">
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="8:17">
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -1713,18 +1785,19 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="8:16">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" spans="8:17">
       <c r="H26" s="4"/>
       <c r="I26" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -1732,9 +1805,10 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="8:16">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="8:17">
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -1743,90 +1817,100 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="8:16">
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="8:17">
       <c r="H28" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="10">
+        <v>11</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="16">
         <v>0.5</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="10">
+      <c r="M28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="16">
         <v>0</v>
       </c>
-      <c r="P28" s="10">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="29" spans="8:16">
+      <c r="P28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="8:17">
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="10">
+        <v>49</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="16">
         <v>0.5</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="10">
+      <c r="M29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="16">
         <v>0</v>
       </c>
-      <c r="P29" s="10">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="30" spans="8:16">
+      <c r="P29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="8:17">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="10" t="s">
+      <c r="J30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="10">
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="31" spans="8:16">
+    </row>
+    <row r="31" spans="8:17">
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1835,20 +1919,21 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="8:16">
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="8:17">
       <c r="H32" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L32" s="1">
         <v>0.5</v>
@@ -1856,18 +1941,19 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="8:16">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="8:17">
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -1875,16 +1961,17 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="8:16">
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="8:17">
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -1892,49 +1979,52 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="8:16">
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="8:17">
       <c r="H35" s="3"/>
       <c r="I35" s="4"/>
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L35" s="1">
         <v>0.5</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="8:16">
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+    </row>
+    <row r="36" spans="8:17">
       <c r="H36" s="4"/>
       <c r="I36" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L36" s="1">
         <v>0.5</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="8:16">
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="8:17">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -1943,37 +2033,39 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="8:16">
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="8:17">
       <c r="H38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="10">
+        <v>64</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="12">
         <v>1</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O38" s="11">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="13">
         <v>1</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="14">
         <v>12.26</v>
       </c>
+      <c r="Q38" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="N7:N38"/>
+  <autoFilter ref="Q7:Q38"/>
   <mergeCells count="11">
     <mergeCell ref="H8:H17"/>
     <mergeCell ref="H19:H26"/>
@@ -2023,28 +2115,28 @@
     </row>
     <row r="13" ht="16.5" spans="7:11">
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1">
         <v>0.5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="7:11">
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2055,7 +2147,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2066,7 +2158,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2076,10 +2168,10 @@
     <row r="17" ht="16.5" spans="7:11">
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2090,7 +2182,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2100,10 +2192,10 @@
     <row r="19" ht="16.5" spans="7:11">
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2114,7 +2206,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2125,7 +2217,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2136,7 +2228,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2152,28 +2244,28 @@
     </row>
     <row r="24" ht="16.5" spans="7:11">
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1">
         <v>0.5</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="7:11">
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2184,7 +2276,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -2195,7 +2287,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2206,7 +2298,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2216,23 +2308,23 @@
     <row r="29" ht="16.5" spans="7:11">
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J29" s="1">
         <v>0.5</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="7:11">
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -2242,10 +2334,10 @@
     <row r="31" ht="16.5" spans="7:11">
       <c r="G31" s="4"/>
       <c r="H31" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2261,13 +2353,13 @@
     </row>
     <row r="33" ht="16.5" spans="7:11">
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -2277,29 +2369,29 @@
     <row r="34" ht="16.5" spans="7:11">
       <c r="G34" s="3"/>
       <c r="H34" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J34" s="1">
         <v>0.5</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="7:11">
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J35" s="1">
         <v>0.5</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="7:11">
@@ -2311,13 +2403,13 @@
     </row>
     <row r="37" ht="16.5" spans="7:11">
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -2327,10 +2419,10 @@
     <row r="38" ht="16.5" spans="7:11">
       <c r="G38" s="3"/>
       <c r="H38" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -2341,7 +2433,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2352,28 +2444,28 @@
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
       <c r="I40" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J40" s="1">
         <v>0.5</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="7:11">
       <c r="G41" s="4"/>
       <c r="H41" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J41" s="1">
         <v>0.5</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="7:7">
@@ -2381,7 +2473,7 @@
     </row>
     <row r="44" spans="7:7">
       <c r="G44" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -273,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,6 +295,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -307,16 +315,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,15 +344,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +353,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,30 +369,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,9 +384,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,6 +398,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -413,14 +413,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -437,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,13 +488,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,25 +602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,55 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,55 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +724,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,17 +749,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +797,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,164 +820,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,9 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="H7:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1428,10 +1425,10 @@
       <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1445,28 +1442,28 @@
       <c r="I8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>0.5</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>12.26</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="8:17">
       <c r="H9" s="5"/>
@@ -1485,8 +1482,8 @@
         <v>18</v>
       </c>
       <c r="O9" s="8"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="8:17">
       <c r="H10" s="5"/>
@@ -1503,8 +1500,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="8"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="8:17">
       <c r="H11" s="5"/>
@@ -1521,8 +1518,8 @@
         <v>18</v>
       </c>
       <c r="O11" s="8"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="8:17">
       <c r="H12" s="5"/>
@@ -1541,32 +1538,32 @@
         <v>18</v>
       </c>
       <c r="O12" s="8"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="8:18">
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15" t="s">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>0</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1578,26 +1575,26 @@
       <c r="I14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15" t="s">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <v>0</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1607,26 +1604,26 @@
     <row r="15" spans="8:18">
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <v>0</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1636,50 +1633,50 @@
     <row r="16" spans="8:17">
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>0</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>1</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>12.26</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="8:17">
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>0</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>1</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>12.26</v>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="8:17">
       <c r="H18" s="7"/>
@@ -1687,11 +1684,11 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="8:17">
       <c r="H19" s="4" t="s">
@@ -1700,26 +1697,26 @@
       <c r="I19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>0.5</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20" t="s">
+      <c r="O19" s="18"/>
+      <c r="P19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1740,8 +1737,8 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="8:17">
       <c r="H21" s="5"/>
@@ -1758,56 +1755,56 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="8:17">
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <v>0</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20" t="s">
+      <c r="O22" s="18"/>
+      <c r="P22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="8:17">
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="18">
         <v>1</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20" t="s">
+      <c r="O23" s="18"/>
+      <c r="P23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1816,50 +1813,50 @@
       <c r="I24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <v>0.5</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20" t="s">
+      <c r="O24" s="18"/>
+      <c r="P24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="8:17">
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="18">
         <v>1</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19" t="s">
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20" t="s">
+      <c r="O25" s="18"/>
+      <c r="P25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1868,24 +1865,24 @@
       <c r="I26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="18">
         <v>1</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19" t="s">
+      <c r="M26" s="18"/>
+      <c r="N26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20" t="s">
+      <c r="O26" s="18"/>
+      <c r="P26" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="Q26" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1898,8 +1895,8 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28" spans="8:18">
       <c r="H28" s="4" t="s">
@@ -1908,28 +1905,28 @@
       <c r="I28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="14">
         <v>0.5</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="14">
         <v>0</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="16" t="s">
+      <c r="Q28" s="15" t="s">
         <v>57</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -1941,28 +1938,28 @@
       <c r="I29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>0.5</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="14">
         <v>0</v>
       </c>
-      <c r="P29" s="16" t="s">
+      <c r="P29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q29" s="16" t="s">
+      <c r="Q29" s="15" t="s">
         <v>57</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -1972,28 +1969,28 @@
     <row r="30" spans="8:18">
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>0.5</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="14">
         <v>0</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="P30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="15" t="s">
         <v>57</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -2009,8 +2006,8 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
     </row>
     <row r="32" spans="8:17">
       <c r="H32" s="4" t="s">
@@ -2019,120 +2016,120 @@
       <c r="I32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="18">
         <v>0.5</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19" t="s">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20" t="s">
+      <c r="O32" s="18"/>
+      <c r="P32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="20"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="8:17">
       <c r="H33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="18">
         <v>0</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19" t="s">
+      <c r="M33" s="18"/>
+      <c r="N33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20" t="s">
+      <c r="O33" s="18"/>
+      <c r="P33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="20"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="8:17">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <v>0</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19" t="s">
+      <c r="M34" s="18"/>
+      <c r="N34" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20" t="s">
+      <c r="O34" s="18"/>
+      <c r="P34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="20"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="8:17">
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="18">
         <v>0.5</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20" t="s">
+      <c r="O35" s="18"/>
+      <c r="P35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="20"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="8:17">
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="18">
         <v>0.5</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20" t="s">
+      <c r="O36" s="18"/>
+      <c r="P36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" s="20"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="8:17">
       <c r="H37" s="7"/>
@@ -2143,8 +2140,8 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
     </row>
     <row r="38" spans="8:17">
       <c r="H38" s="8" t="s">
@@ -2153,26 +2150,26 @@
       <c r="I38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>1</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11" t="s">
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="11">
         <v>1</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="12">
         <v>12.26</v>
       </c>
-      <c r="Q38" s="13"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="8:17">
       <c r="H39" s="7"/>
@@ -2183,52 +2180,52 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
     </row>
     <row r="40" spans="8:17">
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19" t="s">
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="20" t="s">
+      <c r="O40" s="22"/>
+      <c r="P40" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="Q40" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="8:17">
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19" t="s">
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="20" t="s">
+      <c r="O41" s="22"/>
+      <c r="P41" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="Q41" s="19" t="s">
         <v>75</v>
       </c>
     </row>

--- a/doc/G12.16功能验收 .xlsx
+++ b/doc/G12.16功能验收 .xlsx
@@ -273,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,14 +295,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -315,7 +307,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +350,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -336,24 +396,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,14 +421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,51 +442,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -488,163 +488,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,6 +723,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -734,6 +788,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,218 +816,155 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,7 +1380,7 @@
   <dimension ref="H7:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
